--- a/Nowcasts/2025Q2/tables/nowcasts_2025Q3_Nr8_Np3_Nj0.xlsx
+++ b/Nowcasts/2025Q2/tables/nowcasts_2025Q3_Nr8_Np3_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Row</t>
   </si>
@@ -22,6 +22,63 @@
   </si>
   <si>
     <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -97,60 +154,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K9"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
-    <col min="2" max="2" width="12.64453125" customWidth="true"/>
-    <col min="3" max="3" width="6.98046875" customWidth="true"/>
-    <col min="4" max="4" width="9.77734375" customWidth="true"/>
-    <col min="5" max="5" width="6.1796875" customWidth="true"/>
-    <col min="6" max="6" width="7.98046875" customWidth="true"/>
-    <col min="7" max="7" width="7.84375" customWidth="true"/>
-    <col min="8" max="8" width="11.3125" customWidth="true"/>
-    <col min="9" max="9" width="5.77734375" customWidth="true"/>
-    <col min="10" max="10" width="15.046875" customWidth="true"/>
-    <col min="11" max="11" width="7.7109375" customWidth="true"/>
+    <col min="2" max="2" width="13.24609375" customWidth="true"/>
+    <col min="3" max="3" width="14.64453125" customWidth="true"/>
+    <col min="4" max="4" width="15.24609375" customWidth="true"/>
+    <col min="5" max="5" width="16.24609375" customWidth="true"/>
+    <col min="6" max="6" width="15.77734375" customWidth="true"/>
+    <col min="7" max="7" width="15.24609375" customWidth="true"/>
+    <col min="8" max="8" width="16.24609375" customWidth="true"/>
+    <col min="9" max="9" width="15.24609375" customWidth="true"/>
+    <col min="10" max="10" width="16.24609375" customWidth="true"/>
+    <col min="11" max="11" width="15.24609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B2" s="0">
         <v>0.37497749259404506</v>
@@ -185,7 +242,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B3" s="0">
         <v>0.33531951622842254</v>
@@ -216,6 +273,216 @@
       </c>
       <c r="K3" s="0">
         <v>0.0067281995367520775</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0.33679387329989202</v>
+      </c>
+      <c r="C4" s="0">
+        <v>0.003002703668946889</v>
+      </c>
+      <c r="D4" s="0">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0">
+        <v>0.00066716332307373988</v>
+      </c>
+      <c r="F4" s="0">
+        <v>-7.9092716913159203e-05</v>
+      </c>
+      <c r="G4" s="0">
+        <v>0</v>
+      </c>
+      <c r="H4" s="0">
+        <v>0.00022549322776889002</v>
+      </c>
+      <c r="I4" s="0">
+        <v>-0.012720307002521795</v>
+      </c>
+      <c r="J4" s="0">
+        <v>-0.00090462520854870407</v>
+      </c>
+      <c r="K4" s="0">
+        <v>-0.0023789081783852084</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="0">
+        <v>0.41895212332731702</v>
+      </c>
+      <c r="C5" s="0">
+        <v>0.053731769452130901</v>
+      </c>
+      <c r="D5" s="0">
+        <v>-0.022140088625341361</v>
+      </c>
+      <c r="E5" s="0">
+        <v>-0.00030665984029825207</v>
+      </c>
+      <c r="F5" s="0">
+        <v>0.001190357799414165</v>
+      </c>
+      <c r="G5" s="0">
+        <v>-0.0093765854611102314</v>
+      </c>
+      <c r="H5" s="0">
+        <v>-3.1549917859729457e-05</v>
+      </c>
+      <c r="I5" s="0">
+        <v>-0.0029860284343352027</v>
+      </c>
+      <c r="J5" s="0">
+        <v>0</v>
+      </c>
+      <c r="K5" s="0">
+        <v>0.0031764052421368039</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="0">
+        <v>0.2380500646144319</v>
+      </c>
+      <c r="C6" s="0">
+        <v>0.18382488543309897</v>
+      </c>
+      <c r="D6" s="0">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0">
+        <v>-0.0065469739785483979</v>
+      </c>
+      <c r="F6" s="0">
+        <v>0.0019543097987184191</v>
+      </c>
+      <c r="G6" s="0">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0">
+        <v>0.0012393566565966482</v>
+      </c>
+      <c r="I6" s="0">
+        <v>-0.010520333932901176</v>
+      </c>
+      <c r="J6" s="0">
+        <v>0</v>
+      </c>
+      <c r="K6" s="0">
+        <v>-0.0016620203382148868</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="0">
+        <v>0.18813923278254657</v>
+      </c>
+      <c r="C7" s="0">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0">
+        <v>-0.014338702283921622</v>
+      </c>
+      <c r="E7" s="0">
+        <v>-0.0019199551972445934</v>
+      </c>
+      <c r="F7" s="0">
+        <v>-0.024101137579767545</v>
+      </c>
+      <c r="G7" s="0">
+        <v>0.0082397316091548482</v>
+      </c>
+      <c r="H7" s="0">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0.0019266944443951455</v>
+      </c>
+      <c r="J7" s="0">
+        <v>0</v>
+      </c>
+      <c r="K7" s="0">
+        <v>0.025896472322222641</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="0">
+        <v>-0.10852563151328387</v>
+      </c>
+      <c r="C8" s="0">
+        <v>-0.24524455291260533</v>
+      </c>
+      <c r="D8" s="0">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0">
+        <v>0.0019794165956533243</v>
+      </c>
+      <c r="F8" s="0">
+        <v>-0.0016616361110333387</v>
+      </c>
+      <c r="G8" s="0">
+        <v>0</v>
+      </c>
+      <c r="H8" s="0">
+        <v>-0.00014576046316446087</v>
+      </c>
+      <c r="I8" s="0">
+        <v>-0.022077146684754197</v>
+      </c>
+      <c r="J8" s="0">
+        <v>0</v>
+      </c>
+      <c r="K8" s="0">
+        <v>-0.0033724799336657951</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="0">
+        <v>-0.2167165302353537</v>
+      </c>
+      <c r="C9" s="0">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0">
+        <v>-0.10971535592887527</v>
+      </c>
+      <c r="E9" s="0">
+        <v>-0.011509636249495777</v>
+      </c>
+      <c r="F9" s="0">
+        <v>-0.075677423470490141</v>
+      </c>
+      <c r="G9" s="0">
+        <v>-0.0039690555570250242</v>
+      </c>
+      <c r="H9" s="0">
+        <v>-0.0021083035897767719</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0.0023036811524804624</v>
+      </c>
+      <c r="J9" s="0">
+        <v>0</v>
+      </c>
+      <c r="K9" s="0">
+        <v>-0.00068532557036642128</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q2/tables/nowcasts_2025Q3_Nr8_Np3_Nj0.xlsx
+++ b/Nowcasts/2025Q2/tables/nowcasts_2025Q3_Nr8_Np3_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Row</t>
   </si>
@@ -22,6 +22,63 @@
   </si>
   <si>
     <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -172,42 +229,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B2" s="0">
         <v>0.37497749259404506</v>
@@ -242,7 +299,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B3" s="0">
         <v>0.33531951622842254</v>
@@ -277,7 +334,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B4" s="0">
         <v>0.33679387329989202</v>
@@ -312,7 +369,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B5" s="0">
         <v>0.41895212332731702</v>
@@ -347,7 +404,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B6" s="0">
         <v>0.2380500646144319</v>
@@ -382,7 +439,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B7" s="0">
         <v>0.18813923278254657</v>
@@ -417,7 +474,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B8" s="0">
         <v>-0.10852563151328387</v>
@@ -452,7 +509,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B9" s="0">
         <v>-0.2167165302353537</v>
